--- a/YSRealEstate/bin/Debug/이수영관리2.xlsx
+++ b/YSRealEstate/bin/Debug/이수영관리2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktwon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudio\프로젝트외\YSRealEstate-master\YSRealEstate\YSRealEstate\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38E921A-0C25-4E2E-B52D-0E763E8BA710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="임대" sheetId="2" r:id="rId1"/>
@@ -24,11 +23,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">임대!$D$1:$D$423</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="1255">
   <si>
     <t>매물상담일지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -296,10 +296,6 @@
   <si>
     <t>100
 추가가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2228-6809</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2921,12 +2917,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3바726
-황우전자
-2187-14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>앞부분사용
 19년 3월까지 단기임대</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5806,11 +5796,26 @@
 010-4511-6621</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>010-2319-1388(사모님)
+010-4319-1388(사장님)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3바726
+황우전자
+2187-14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2228-6809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
@@ -6473,23 +6478,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6525,23 +6513,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6717,11 +6688,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="L155" sqref="L155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="44.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6831,7 +6802,7 @@
         <v>43249</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="17">
@@ -6845,13 +6816,13 @@
       <c r="I4" s="21"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>173</v>
+        <v>1252</v>
       </c>
       <c r="N4" s="16"/>
     </row>
@@ -6883,13 +6854,13 @@
         <v>62</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>622</v>
+        <v>1253</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>63</v>
+        <v>1254</v>
       </c>
       <c r="N5" s="16"/>
     </row>
@@ -6901,25 +6872,25 @@
         <v>43263</v>
       </c>
       <c r="C6" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="17"/>
       <c r="K6" s="18" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="20" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="N6" s="16"/>
     </row>
@@ -6931,10 +6902,10 @@
         <v>43263</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="17">
         <v>2000</v>
@@ -6947,13 +6918,13 @@
       <c r="I7" s="21"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N7" s="16"/>
     </row>
@@ -6965,31 +6936,31 @@
         <v>43263</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="17">
         <v>1250</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="17"/>
       <c r="K8" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="M8" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="N8" s="16"/>
     </row>
@@ -7001,33 +6972,33 @@
         <v>43280</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="17">
         <v>700</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N9" s="16"/>
     </row>
@@ -7039,10 +7010,10 @@
         <v>43284</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="17">
         <v>500</v>
@@ -7052,22 +7023,22 @@
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J10" s="17">
         <v>20</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="16"/>
     </row>
@@ -7079,10 +7050,10 @@
         <v>43285</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17">
@@ -7090,15 +7061,15 @@
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="17"/>
       <c r="K11" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M11" s="20"/>
       <c r="N11" s="16"/>
@@ -7111,27 +7082,27 @@
         <v>43292</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="17">
         <v>26000000</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="17"/>
       <c r="K12" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N12" s="16"/>
     </row>
@@ -7143,10 +7114,10 @@
         <v>43292</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="17">
         <v>50000000</v>
@@ -7156,20 +7127,20 @@
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>124</v>
       </c>
       <c r="N13" s="16"/>
     </row>
@@ -7181,7 +7152,7 @@
         <v>43293</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>60</v>
@@ -7190,24 +7161,24 @@
         <v>25300000</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J14" s="17">
         <v>100</v>
       </c>
       <c r="K14" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="M14" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="N14" s="16"/>
     </row>
@@ -7219,27 +7190,27 @@
         <v>43293</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="17"/>
       <c r="K15" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="L15" s="23" t="s">
-        <v>136</v>
-      </c>
       <c r="M15" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N15" s="16"/>
     </row>
@@ -7251,10 +7222,10 @@
         <v>43299</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17">
@@ -7265,13 +7236,13 @@
       <c r="I16" s="21"/>
       <c r="J16" s="17"/>
       <c r="K16" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>145</v>
       </c>
       <c r="N16" s="16"/>
     </row>
@@ -7283,7 +7254,7 @@
         <v>43249</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="17">
@@ -7297,13 +7268,13 @@
       <c r="I17" s="21"/>
       <c r="J17" s="17"/>
       <c r="K17" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N17" s="16"/>
     </row>
@@ -7315,10 +7286,10 @@
         <v>43276</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="E18" s="17">
         <v>1000</v>
@@ -7331,13 +7302,13 @@
       <c r="I18" s="21"/>
       <c r="J18" s="17"/>
       <c r="K18" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N18" s="16"/>
     </row>
@@ -7357,11 +7328,11 @@
       <c r="I19" s="21"/>
       <c r="J19" s="17"/>
       <c r="K19" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L19" s="22"/>
       <c r="M19" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N19" s="16"/>
     </row>
@@ -7373,10 +7344,10 @@
         <v>43299</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="E20" s="17">
         <v>300</v>
@@ -7389,11 +7360,11 @@
       <c r="I20" s="21"/>
       <c r="J20" s="17"/>
       <c r="K20" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L20" s="23"/>
       <c r="M20" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N20" s="16"/>
     </row>
@@ -7405,33 +7376,33 @@
         <v>43564</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="21" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="J21" s="17">
         <v>100</v>
       </c>
       <c r="K21" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="M21" s="20" t="s">
         <v>201</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>953</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>202</v>
       </c>
       <c r="N21" s="16"/>
     </row>
@@ -7443,29 +7414,29 @@
         <v>43308</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="17">
         <v>54</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N22" s="16"/>
     </row>
@@ -7477,7 +7448,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="17"/>
@@ -7486,16 +7457,16 @@
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="17"/>
       <c r="K23" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L23" s="23"/>
       <c r="M23" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N23" s="16"/>
     </row>
@@ -7505,10 +7476,10 @@
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -7517,16 +7488,16 @@
       <c r="I24" s="21"/>
       <c r="J24" s="17"/>
       <c r="K24" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -7535,32 +7506,32 @@
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>310</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="17"/>
       <c r="K25" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -7571,29 +7542,29 @@
         <v>43342</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L26" s="22"/>
       <c r="M26" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N26" s="16"/>
     </row>
@@ -7605,10 +7576,10 @@
         <v>43343</v>
       </c>
       <c r="C27" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>394</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>395</v>
       </c>
       <c r="E27" s="17">
         <v>700</v>
@@ -7619,17 +7590,17 @@
       <c r="G27" s="17"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="L27" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="M27" s="20" t="s">
         <v>400</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>401</v>
       </c>
       <c r="N27" s="16"/>
     </row>
@@ -7641,29 +7612,29 @@
         <v>43354</v>
       </c>
       <c r="C28" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>416</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>417</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>418</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N28" s="16"/>
     </row>
@@ -7684,10 +7655,10 @@
       <c r="J29" s="17"/>
       <c r="K29" s="18"/>
       <c r="L29" s="22" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N29" s="16"/>
     </row>
@@ -7699,29 +7670,29 @@
         <v>43354</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E30" s="17">
         <v>1000</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="17"/>
       <c r="K30" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="M30" s="20" t="s">
         <v>425</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>426</v>
       </c>
       <c r="N30" s="16"/>
     </row>
@@ -7733,10 +7704,10 @@
         <v>43348</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E31" s="17">
         <v>300</v>
@@ -7746,20 +7717,20 @@
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="M31" s="20" t="s">
         <v>455</v>
-      </c>
-      <c r="L31" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="M31" s="20" t="s">
-        <v>456</v>
       </c>
       <c r="N31" s="16"/>
     </row>
@@ -7771,10 +7742,10 @@
         <v>43349</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E32" s="17">
         <v>2100</v>
@@ -7784,20 +7755,20 @@
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N32" s="16"/>
     </row>
@@ -7809,31 +7780,31 @@
         <v>43355</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N33" s="16"/>
     </row>
@@ -7845,29 +7816,29 @@
         <v>43355</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N34" s="16"/>
     </row>
@@ -7879,29 +7850,29 @@
         <v>43355</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J35" s="17">
         <v>70</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N35" s="16"/>
     </row>
@@ -7913,27 +7884,27 @@
         <v>43355</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="17"/>
       <c r="K36" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N36" s="16"/>
     </row>
@@ -7945,25 +7916,25 @@
         <v>43355</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="17"/>
       <c r="K37" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L37" s="22"/>
       <c r="M37" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N37" s="16"/>
     </row>
@@ -7975,31 +7946,31 @@
         <v>43355</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G38" s="17">
         <v>4</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J38" s="17"/>
       <c r="K38" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L38" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="M38" s="20" t="s">
         <v>492</v>
-      </c>
-      <c r="M38" s="20" t="s">
-        <v>493</v>
       </c>
       <c r="N38" s="16"/>
     </row>
@@ -8011,7 +7982,7 @@
         <v>43355</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="17">
@@ -8025,13 +7996,13 @@
       <c r="I39" s="21"/>
       <c r="J39" s="17"/>
       <c r="K39" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N39" s="16"/>
     </row>
@@ -8043,10 +8014,10 @@
         <v>43357</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E40" s="17">
         <v>2350</v>
@@ -8056,23 +8027,23 @@
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J40" s="17">
         <v>60</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M40" s="20"/>
       <c r="N40" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8083,7 +8054,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="17"/>
@@ -8093,14 +8064,14 @@
       <c r="I41" s="21"/>
       <c r="J41" s="17"/>
       <c r="K41" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8111,10 +8082,10 @@
         <v>43357</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E42" s="17">
         <v>650</v>
@@ -8127,14 +8098,14 @@
       <c r="I42" s="21"/>
       <c r="J42" s="17"/>
       <c r="K42" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M42" s="20"/>
       <c r="N42" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8145,10 +8116,10 @@
         <v>43357</v>
       </c>
       <c r="C43" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>524</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>525</v>
       </c>
       <c r="E43" s="17">
         <v>150000</v>
@@ -8161,14 +8132,14 @@
       <c r="I43" s="21"/>
       <c r="J43" s="17"/>
       <c r="K43" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8179,10 +8150,10 @@
         <v>43357</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E44" s="17">
         <v>180000000</v>
@@ -8192,21 +8163,21 @@
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="17">
         <v>80</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M44" s="20"/>
       <c r="N44" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8217,10 +8188,10 @@
         <v>43357</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E45" s="17">
         <v>180000000</v>
@@ -8230,21 +8201,21 @@
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="17">
         <v>80</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M45" s="20"/>
       <c r="N45" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8255,10 +8226,10 @@
         <v>43357</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E46" s="17">
         <v>180000000</v>
@@ -8268,21 +8239,21 @@
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="17">
         <v>80</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M46" s="20"/>
       <c r="N46" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8293,10 +8264,10 @@
         <v>43357</v>
       </c>
       <c r="C47" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>535</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>536</v>
       </c>
       <c r="E47" s="17">
         <v>43000000</v>
@@ -8311,14 +8282,14 @@
         <v>100</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M47" s="20"/>
       <c r="N47" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8329,10 +8300,10 @@
         <v>43357</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E48" s="17">
         <v>25000000</v>
@@ -8342,21 +8313,21 @@
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I48" s="21"/>
       <c r="J48" s="17">
         <v>50</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M48" s="20"/>
       <c r="N48" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8367,10 +8338,10 @@
         <v>43357</v>
       </c>
       <c r="C49" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>541</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>542</v>
       </c>
       <c r="E49" s="17">
         <v>10000000</v>
@@ -8383,14 +8354,14 @@
       <c r="I49" s="21"/>
       <c r="J49" s="17"/>
       <c r="K49" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M49" s="20"/>
       <c r="N49" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8401,10 +8372,10 @@
         <v>43357</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E50" s="17">
         <v>15000000</v>
@@ -8413,7 +8384,7 @@
         <v>1500000</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
@@ -8421,14 +8392,14 @@
         <v>30</v>
       </c>
       <c r="K50" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="L50" s="22" t="s">
         <v>548</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>549</v>
       </c>
       <c r="M50" s="20"/>
       <c r="N50" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8439,10 +8410,10 @@
         <v>43357</v>
       </c>
       <c r="C51" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>545</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>546</v>
       </c>
       <c r="E51" s="17">
         <v>11000000</v>
@@ -8451,7 +8422,7 @@
         <v>1100000</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
@@ -8459,14 +8430,14 @@
         <v>30</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M51" s="20"/>
       <c r="N51" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8477,10 +8448,10 @@
         <v>43357</v>
       </c>
       <c r="C52" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>552</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>553</v>
       </c>
       <c r="E52" s="17">
         <v>10000000</v>
@@ -8495,14 +8466,14 @@
         <v>30</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M52" s="20"/>
       <c r="N52" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8513,10 +8484,10 @@
         <v>43357</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E53" s="17">
         <v>70000000</v>
@@ -8529,14 +8500,14 @@
       <c r="I53" s="21"/>
       <c r="J53" s="17"/>
       <c r="K53" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M53" s="20"/>
       <c r="N53" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8547,10 +8518,10 @@
         <v>43383</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E54" s="17">
         <v>18600000</v>
@@ -8559,7 +8530,7 @@
         <v>1860000</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
@@ -8567,13 +8538,13 @@
         <v>20</v>
       </c>
       <c r="K54" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="L54" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="M54" s="20" t="s">
         <v>572</v>
-      </c>
-      <c r="L54" s="22" t="s">
-        <v>742</v>
-      </c>
-      <c r="M54" s="20" t="s">
-        <v>573</v>
       </c>
       <c r="N54" s="16"/>
     </row>
@@ -8585,33 +8556,33 @@
         <v>43383</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E55" s="17">
         <v>30000000</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="21"/>
       <c r="I55" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J55" s="17">
         <v>100</v>
       </c>
       <c r="K55" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="M55" s="20" t="s">
         <v>579</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>581</v>
-      </c>
-      <c r="M55" s="20" t="s">
-        <v>580</v>
       </c>
       <c r="N55" s="16"/>
     </row>
@@ -8623,29 +8594,29 @@
         <v>43383</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J56" s="17">
         <v>50</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L56" s="22"/>
       <c r="M56" s="20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N56" s="16"/>
     </row>
@@ -8657,31 +8628,31 @@
         <v>43383</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="G57" s="17" t="s">
         <v>585</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>586</v>
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J57" s="17">
         <v>70</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L57" s="22"/>
       <c r="M57" s="20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N57" s="16"/>
     </row>
@@ -8693,10 +8664,10 @@
         <v>43383</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E58" s="17">
         <v>4000000</v>
@@ -8705,23 +8676,23 @@
         <v>400000</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J58" s="17">
         <v>14</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N58" s="16"/>
     </row>
@@ -8733,35 +8704,35 @@
         <v>43383</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E59" s="17">
         <v>9600000</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H59" s="21"/>
       <c r="I59" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J59" s="17">
         <v>22</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N59" s="16"/>
     </row>
@@ -8773,33 +8744,33 @@
         <v>43384</v>
       </c>
       <c r="C60" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="E60" s="17" t="s">
         <v>597</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="E60" s="17" t="s">
+      <c r="F60" s="18" t="s">
         <v>598</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>599</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="I60" s="21" t="s">
         <v>600</v>
-      </c>
-      <c r="I60" s="21" t="s">
-        <v>601</v>
       </c>
       <c r="J60" s="17"/>
       <c r="K60" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N60" s="16"/>
     </row>
@@ -8811,10 +8782,10 @@
         <v>43402</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E61" s="17">
         <v>1000</v>
@@ -8825,19 +8796,19 @@
       <c r="G61" s="17"/>
       <c r="H61" s="21"/>
       <c r="I61" s="21" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J61" s="17">
         <v>30</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="N61" s="16"/>
     </row>
@@ -8849,10 +8820,10 @@
         <v>43402</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E62" s="17">
         <v>2100</v>
@@ -8862,22 +8833,22 @@
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="21" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I62" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="J62" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="J62" s="17" t="s">
-        <v>638</v>
-      </c>
       <c r="K62" s="18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L62" s="22" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N62" s="16"/>
     </row>
@@ -8889,10 +8860,10 @@
         <v>43420</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="18"/>
@@ -8901,13 +8872,13 @@
       <c r="I63" s="21"/>
       <c r="J63" s="17"/>
       <c r="K63" s="18" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L63" s="22" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="N63" s="16"/>
     </row>
@@ -8919,7 +8890,7 @@
         <v>43564</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="17"/>
@@ -8928,20 +8899,20 @@
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="21" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I64" s="21"/>
       <c r="J64" s="17">
         <v>60</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N64" s="16"/>
     </row>
@@ -8953,10 +8924,10 @@
         <v>43414</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="18">
@@ -8964,22 +8935,22 @@
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="21" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I65" s="21" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J65" s="17">
         <v>60</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N65" s="16"/>
     </row>
@@ -8991,10 +8962,10 @@
         <v>43414</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E66" s="17">
         <v>8500</v>
@@ -9004,20 +8975,20 @@
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="21" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I66" s="21" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J66" s="17"/>
       <c r="K66" s="18" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="L66" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N66" s="16"/>
     </row>
@@ -9029,31 +9000,31 @@
         <v>43415</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J67" s="17"/>
       <c r="K67" s="18" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L67" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="M67" s="20" t="s">
         <v>698</v>
-      </c>
-      <c r="M67" s="20" t="s">
-        <v>700</v>
       </c>
       <c r="N67" s="16"/>
     </row>
@@ -9065,27 +9036,27 @@
         <v>43419</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="18" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G68" s="17"/>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="17"/>
       <c r="K68" s="18" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="N68" s="16"/>
     </row>
@@ -9097,29 +9068,29 @@
         <v>43419</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="18" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="21"/>
       <c r="I69" s="21" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J69" s="17"/>
       <c r="K69" s="18" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="N69" s="16"/>
     </row>
@@ -9131,33 +9102,33 @@
         <v>43789</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="18" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="21" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J70" s="17">
         <v>70</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="N70" s="16"/>
     </row>
@@ -9169,25 +9140,25 @@
         <v>43803</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E71" s="17"/>
       <c r="F71" s="18"/>
       <c r="G71" s="17"/>
       <c r="H71" s="21"/>
       <c r="I71" s="21" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J71" s="17"/>
       <c r="K71" s="18" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="L71" s="22"/>
       <c r="M71" s="20" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="N71" s="16"/>
     </row>
@@ -9199,29 +9170,29 @@
         <v>43805</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="18" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="21" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="I72" s="21"/>
       <c r="J72" s="17"/>
       <c r="K72" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="L72" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="M72" s="20" t="s">
         <v>758</v>
-      </c>
-      <c r="L72" s="22" t="s">
-        <v>761</v>
-      </c>
-      <c r="M72" s="20" t="s">
-        <v>760</v>
       </c>
       <c r="N72" s="16"/>
     </row>
@@ -9233,29 +9204,29 @@
         <v>43818</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="18" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="21" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="I73" s="21"/>
       <c r="J73" s="17"/>
       <c r="K73" s="18" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="L73" s="22" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="N73" s="16"/>
     </row>
@@ -9267,29 +9238,29 @@
         <v>43818</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="18" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J74" s="17"/>
       <c r="K74" s="18" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="M74" s="20" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="N74" s="16"/>
     </row>
@@ -9301,29 +9272,29 @@
         <v>43467</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E75" s="17"/>
       <c r="F75" s="18" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G75" s="17"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J75" s="17"/>
       <c r="K75" s="18" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="L75" s="22" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="M75" s="20" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="N75" s="16"/>
     </row>
@@ -9335,25 +9306,25 @@
         <v>43467</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="18" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="17"/>
       <c r="K76" s="18" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="L76" s="22"/>
       <c r="M76" s="20" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="N76" s="16"/>
     </row>
@@ -9365,10 +9336,10 @@
         <v>43467</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E77" s="17">
         <v>4500</v>
@@ -9379,15 +9350,15 @@
       <c r="G77" s="17"/>
       <c r="H77" s="21"/>
       <c r="I77" s="21" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J77" s="17"/>
       <c r="K77" s="18" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L77" s="22"/>
       <c r="M77" s="20" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="N77" s="16"/>
     </row>
@@ -9399,29 +9370,29 @@
         <v>43467</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="18" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="21"/>
       <c r="I78" s="21" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="J78" s="17"/>
       <c r="K78" s="18" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="N78" s="16"/>
     </row>
@@ -9433,31 +9404,31 @@
         <v>43467</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="18" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="J79" s="17"/>
       <c r="K79" s="18" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="N79" s="16"/>
     </row>
@@ -9470,7 +9441,7 @@
       </c>
       <c r="C80" s="14"/>
       <c r="D80" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E80" s="17">
         <v>600</v>
@@ -9483,13 +9454,13 @@
       <c r="I80" s="21"/>
       <c r="J80" s="17"/>
       <c r="K80" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="L80" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="M80" s="20" t="s">
         <v>796</v>
-      </c>
-      <c r="L80" s="22" t="s">
-        <v>797</v>
-      </c>
-      <c r="M80" s="20" t="s">
-        <v>798</v>
       </c>
       <c r="N80" s="16"/>
     </row>
@@ -9501,33 +9472,33 @@
         <v>43467</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="18" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="33" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J81" s="17">
         <v>70</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="N81" s="16"/>
     </row>
@@ -9539,29 +9510,29 @@
         <v>43467</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="18" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="21"/>
       <c r="I82" s="21" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="J82" s="17"/>
       <c r="K82" s="18" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="N82" s="16"/>
     </row>
@@ -9573,31 +9544,31 @@
         <v>43467</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="18" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J83" s="17"/>
       <c r="K83" s="18" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="N83" s="16"/>
     </row>
@@ -9609,29 +9580,29 @@
         <v>43467</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="18" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="21"/>
       <c r="I84" s="21" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J84" s="17"/>
       <c r="K84" s="18" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="N84" s="16"/>
     </row>
@@ -9643,33 +9614,33 @@
         <v>43479</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="18" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="21" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J85" s="17">
         <v>150</v>
       </c>
       <c r="K85" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="L85" s="22" t="s">
+        <v>823</v>
+      </c>
+      <c r="M85" s="20" t="s">
         <v>824</v>
-      </c>
-      <c r="L85" s="22" t="s">
-        <v>825</v>
-      </c>
-      <c r="M85" s="20" t="s">
-        <v>826</v>
       </c>
       <c r="N85" s="16"/>
     </row>
@@ -9681,10 +9652,10 @@
         <v>43480</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E86" s="17">
         <v>1200</v>
@@ -9693,17 +9664,17 @@
         <v>120</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="17"/>
       <c r="K86" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="L86" s="22"/>
       <c r="M86" s="20" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="N86" s="16"/>
     </row>
@@ -9715,10 +9686,10 @@
         <v>43480</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E87" s="17">
         <v>5000</v>
@@ -9728,22 +9699,22 @@
       </c>
       <c r="G87" s="17"/>
       <c r="H87" s="33" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I87" s="21" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J87" s="17">
         <v>250</v>
       </c>
       <c r="K87" s="18" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="N87" s="16"/>
     </row>
@@ -9755,31 +9726,31 @@
         <v>43480</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="G88" s="17" t="s">
         <v>836</v>
       </c>
-      <c r="G88" s="17" t="s">
-        <v>838</v>
-      </c>
       <c r="H88" s="21" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I88" s="21" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J88" s="17"/>
       <c r="K88" s="18" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="L88" s="22"/>
       <c r="M88" s="20" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="N88" s="16"/>
     </row>
@@ -9791,10 +9762,10 @@
         <v>43480</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E89" s="17">
         <v>4000</v>
@@ -9804,20 +9775,20 @@
       </c>
       <c r="G89" s="17"/>
       <c r="H89" s="21" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I89" s="21"/>
       <c r="J89" s="17">
         <v>100</v>
       </c>
       <c r="K89" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="L89" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="M89" s="20" t="s">
         <v>842</v>
-      </c>
-      <c r="L89" s="22" t="s">
-        <v>843</v>
-      </c>
-      <c r="M89" s="20" t="s">
-        <v>844</v>
       </c>
       <c r="N89" s="16"/>
     </row>
@@ -9829,10 +9800,10 @@
         <v>43490</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E90" s="17">
         <v>600</v>
@@ -9843,17 +9814,17 @@
       <c r="G90" s="17"/>
       <c r="H90" s="21"/>
       <c r="I90" s="21" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J90" s="17"/>
       <c r="K90" s="18" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="N90" s="16"/>
     </row>
@@ -9865,25 +9836,25 @@
         <v>43470</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="17"/>
       <c r="F91" s="18" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G91" s="17"/>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
       <c r="J91" s="17"/>
       <c r="K91" s="18" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="N91" s="16"/>
     </row>
@@ -9895,27 +9866,27 @@
         <v>43480</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="18" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G92" s="17"/>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
       <c r="J92" s="17"/>
       <c r="K92" s="18" t="s">
+        <v>874</v>
+      </c>
+      <c r="L92" s="22" t="s">
         <v>876</v>
       </c>
-      <c r="L92" s="22" t="s">
-        <v>878</v>
-      </c>
       <c r="M92" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="N92" s="16"/>
     </row>
@@ -9927,33 +9898,33 @@
         <v>43480</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="18" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G93" s="17"/>
       <c r="H93" s="21" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I93" s="21" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J93" s="17">
         <v>50</v>
       </c>
       <c r="K93" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="L93" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="M93" s="20" t="s">
         <v>881</v>
-      </c>
-      <c r="L93" s="22" t="s">
-        <v>887</v>
-      </c>
-      <c r="M93" s="20" t="s">
-        <v>883</v>
       </c>
       <c r="N93" s="16"/>
     </row>
@@ -9965,29 +9936,29 @@
         <v>43480</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E94" s="17"/>
       <c r="F94" s="18" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G94" s="17"/>
       <c r="H94" s="21"/>
       <c r="I94" s="21" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="J94" s="17"/>
       <c r="K94" s="18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="L94" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="M94" s="20" t="s">
         <v>890</v>
-      </c>
-      <c r="M94" s="20" t="s">
-        <v>892</v>
       </c>
       <c r="N94" s="16"/>
     </row>
@@ -9999,10 +9970,10 @@
         <v>43483</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E95" s="17">
         <v>450</v>
@@ -10015,11 +9986,11 @@
       <c r="I95" s="21"/>
       <c r="J95" s="17"/>
       <c r="K95" s="18" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="L95" s="22"/>
       <c r="M95" s="20" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="N95" s="16"/>
     </row>
@@ -10031,10 +10002,10 @@
         <v>43483</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E96" s="17">
         <v>4000</v>
@@ -10043,21 +10014,21 @@
         <v>400</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H96" s="21"/>
       <c r="I96" s="21" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="J96" s="17"/>
       <c r="K96" s="18" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="N96" s="16"/>
     </row>
@@ -10069,27 +10040,27 @@
         <v>43483</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E97" s="17"/>
       <c r="F97" s="18"/>
       <c r="G97" s="17"/>
       <c r="H97" s="21"/>
       <c r="I97" s="21" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J97" s="17"/>
       <c r="K97" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="L97" s="22" t="s">
+        <v>905</v>
+      </c>
+      <c r="M97" s="20" t="s">
         <v>906</v>
-      </c>
-      <c r="L97" s="22" t="s">
-        <v>907</v>
-      </c>
-      <c r="M97" s="20" t="s">
-        <v>908</v>
       </c>
       <c r="N97" s="16"/>
     </row>
@@ -10101,10 +10072,10 @@
         <v>43485</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E98" s="17"/>
       <c r="F98" s="18"/>
@@ -10113,10 +10084,10 @@
       <c r="I98" s="21"/>
       <c r="J98" s="17"/>
       <c r="K98" s="18" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="L98" s="22" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="M98" s="20"/>
       <c r="N98" s="16"/>
@@ -10129,29 +10100,29 @@
         <v>43488</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E99" s="17"/>
       <c r="F99" s="18" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G99" s="17"/>
       <c r="H99" s="33" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="I99" s="21"/>
       <c r="J99" s="17"/>
       <c r="K99" s="18" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="N99" s="16"/>
     </row>
@@ -10163,27 +10134,27 @@
         <v>43514</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E100" s="17"/>
       <c r="F100" s="18" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G100" s="17"/>
       <c r="H100" s="21"/>
       <c r="I100" s="21" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="J100" s="17"/>
       <c r="K100" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="L100" s="22"/>
       <c r="M100" s="20" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="N100" s="16"/>
     </row>
@@ -10201,13 +10172,13 @@
       <c r="I101" s="21"/>
       <c r="J101" s="17"/>
       <c r="K101" s="18" t="s">
+        <v>918</v>
+      </c>
+      <c r="L101" s="22" t="s">
         <v>920</v>
       </c>
-      <c r="L101" s="22" t="s">
-        <v>922</v>
-      </c>
       <c r="M101" s="20" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="N101" s="16"/>
     </row>
@@ -10217,10 +10188,10 @@
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="14" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E102" s="17">
         <v>1700</v>
@@ -10230,20 +10201,20 @@
       </c>
       <c r="G102" s="17"/>
       <c r="H102" s="21" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I102" s="21" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="J102" s="17"/>
       <c r="K102" s="18" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="L102" s="22" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="N102" s="16"/>
     </row>
@@ -10253,24 +10224,24 @@
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="14" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="17"/>
       <c r="F103" s="18" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G103" s="17"/>
       <c r="H103" s="21" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I103" s="21"/>
       <c r="J103" s="17"/>
       <c r="K103" s="18" t="s">
+        <v>927</v>
+      </c>
+      <c r="L103" s="22" t="s">
         <v>929</v>
-      </c>
-      <c r="L103" s="22" t="s">
-        <v>931</v>
       </c>
       <c r="M103" s="20"/>
       <c r="N103" s="16"/>
@@ -10290,19 +10261,19 @@
       </c>
       <c r="G104" s="17"/>
       <c r="H104" s="21" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="I104" s="21" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="J104" s="17"/>
       <c r="K104" s="18" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="L104" s="22"/>
       <c r="M104" s="20"/>
       <c r="N104" s="16" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -10311,10 +10282,10 @@
       </c>
       <c r="B105" s="26"/>
       <c r="C105" s="14" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E105" s="17">
         <v>1200</v>
@@ -10327,11 +10298,11 @@
       <c r="I105" s="21"/>
       <c r="J105" s="17"/>
       <c r="K105" s="18" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L105" s="22"/>
       <c r="M105" s="20" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="N105" s="16"/>
     </row>
@@ -10349,11 +10320,11 @@
       <c r="I106" s="21"/>
       <c r="J106" s="17"/>
       <c r="K106" s="18" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L106" s="22"/>
       <c r="M106" s="20" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="N106" s="16"/>
     </row>
@@ -10365,29 +10336,29 @@
         <v>43535</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E107" s="17"/>
       <c r="F107" s="18"/>
       <c r="G107" s="17"/>
       <c r="H107" s="21" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="I107" s="21" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="J107" s="17"/>
       <c r="K107" s="18" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="L107" s="22" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="N107" s="16"/>
     </row>
@@ -10397,7 +10368,7 @@
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="28" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="17"/>
@@ -10405,16 +10376,16 @@
       <c r="G108" s="17"/>
       <c r="H108" s="21"/>
       <c r="I108" s="21" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="J108" s="18" t="s">
+        <v>975</v>
+      </c>
+      <c r="K108" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="L108" s="22" t="s">
         <v>977</v>
-      </c>
-      <c r="K108" s="18" t="s">
-        <v>975</v>
-      </c>
-      <c r="L108" s="22" t="s">
-        <v>979</v>
       </c>
       <c r="M108" s="20"/>
       <c r="N108" s="16"/>
@@ -10426,26 +10397,26 @@
       <c r="B109" s="26"/>
       <c r="C109" s="14"/>
       <c r="D109" s="9" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G109" s="17"/>
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
       <c r="J109" s="17"/>
       <c r="K109" s="18" t="s">
+        <v>978</v>
+      </c>
+      <c r="L109" s="22" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M109" s="20" t="s">
         <v>980</v>
-      </c>
-      <c r="L109" s="22" t="s">
-        <v>1058</v>
-      </c>
-      <c r="M109" s="20" t="s">
-        <v>982</v>
       </c>
       <c r="N109" s="16"/>
     </row>
@@ -10457,29 +10428,29 @@
         <v>43539</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E110" s="17"/>
       <c r="F110" s="18" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G110" s="17"/>
       <c r="H110" s="21" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="I110" s="21"/>
       <c r="J110" s="17"/>
       <c r="K110" s="18" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="L110" s="22" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="N110" s="16"/>
     </row>
@@ -10491,10 +10462,10 @@
         <v>43546</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E111" s="17">
         <v>7000</v>
@@ -10504,22 +10475,22 @@
       </c>
       <c r="G111" s="17"/>
       <c r="H111" s="21" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I111" s="21" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="J111" s="17">
         <v>250</v>
       </c>
       <c r="K111" s="18" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="L111" s="22" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="N111" s="16"/>
     </row>
@@ -10529,10 +10500,10 @@
       </c>
       <c r="B112" s="26"/>
       <c r="C112" s="14" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E112" s="17">
         <v>3900</v>
@@ -10542,22 +10513,22 @@
       </c>
       <c r="G112" s="17"/>
       <c r="H112" s="21" t="s">
+        <v>994</v>
+      </c>
+      <c r="I112" s="21" t="s">
         <v>996</v>
-      </c>
-      <c r="I112" s="21" t="s">
-        <v>998</v>
       </c>
       <c r="J112" s="17">
         <v>100</v>
       </c>
       <c r="K112" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="L112" s="22" t="s">
+        <v>995</v>
+      </c>
+      <c r="M112" s="20" t="s">
         <v>993</v>
-      </c>
-      <c r="L112" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="M112" s="20" t="s">
-        <v>995</v>
       </c>
       <c r="N112" s="16"/>
     </row>
@@ -10568,7 +10539,7 @@
       <c r="B113" s="26"/>
       <c r="C113" s="14"/>
       <c r="D113" s="9" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E113" s="17"/>
       <c r="F113" s="18"/>
@@ -10577,13 +10548,13 @@
       <c r="I113" s="21"/>
       <c r="J113" s="17"/>
       <c r="K113" s="18" t="s">
+        <v>997</v>
+      </c>
+      <c r="L113" s="22" t="s">
         <v>999</v>
       </c>
-      <c r="L113" s="22" t="s">
-        <v>1001</v>
-      </c>
       <c r="M113" s="20" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="N113" s="16"/>
     </row>
@@ -10593,25 +10564,25 @@
       </c>
       <c r="B114" s="26"/>
       <c r="C114" s="14" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G114" s="17"/>
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
       <c r="J114" s="17"/>
       <c r="K114" s="18" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="L114" s="22"/>
       <c r="M114" s="20" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N114" s="16"/>
     </row>
@@ -10621,29 +10592,29 @@
       </c>
       <c r="B115" s="26"/>
       <c r="C115" s="14" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="18" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="G115" s="17"/>
       <c r="H115" s="21"/>
       <c r="I115" s="21" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="J115" s="17"/>
       <c r="K115" s="18" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="L115" s="22" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="N115" s="16"/>
     </row>
@@ -10653,29 +10624,29 @@
       </c>
       <c r="B116" s="26"/>
       <c r="C116" s="14" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="17"/>
       <c r="F116" s="18" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="G116" s="17"/>
       <c r="H116" s="21" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="I116" s="21" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="J116" s="17"/>
       <c r="K116" s="18" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="L116" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="N116" s="16"/>
     </row>
@@ -10693,7 +10664,7 @@
       <c r="I117" s="21"/>
       <c r="J117" s="17"/>
       <c r="K117" s="18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="L117" s="22"/>
       <c r="M117" s="20"/>
@@ -10705,10 +10676,10 @@
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="14" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E118" s="17"/>
       <c r="F118" s="18">
@@ -10719,13 +10690,13 @@
       <c r="I118" s="21"/>
       <c r="J118" s="17"/>
       <c r="K118" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L118" s="22" t="s">
         <v>1021</v>
       </c>
-      <c r="L118" s="22" t="s">
-        <v>1023</v>
-      </c>
       <c r="M118" s="20" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="N118" s="16"/>
     </row>
@@ -10735,24 +10706,24 @@
       </c>
       <c r="B119" s="26"/>
       <c r="C119" s="14" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="17"/>
       <c r="F119" s="18"/>
       <c r="G119" s="17"/>
       <c r="H119" s="21" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I119" s="21"/>
       <c r="J119" s="18" t="s">
         <v>62</v>
       </c>
       <c r="K119" s="18" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L119" s="22" t="s">
         <v>1065</v>
-      </c>
-      <c r="L119" s="22" t="s">
-        <v>1067</v>
       </c>
       <c r="M119" s="20"/>
       <c r="N119" s="16"/>
@@ -10763,7 +10734,7 @@
       </c>
       <c r="B120" s="26"/>
       <c r="C120" s="14" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="17"/>
@@ -10774,13 +10745,13 @@
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
       <c r="J120" s="17" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K120" s="18" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L120" s="22" t="s">
         <v>1068</v>
-      </c>
-      <c r="L120" s="22" t="s">
-        <v>1070</v>
       </c>
       <c r="M120" s="20"/>
       <c r="N120" s="16"/>
@@ -10791,22 +10762,22 @@
       </c>
       <c r="B121" s="26"/>
       <c r="C121" s="14" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="17"/>
       <c r="F121" s="18" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G121" s="17"/>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="17"/>
       <c r="K121" s="18" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="L121" s="22" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="M121" s="20"/>
       <c r="N121" s="16"/>
@@ -10817,31 +10788,31 @@
       </c>
       <c r="B122" s="26"/>
       <c r="C122" s="14" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E122" s="17"/>
       <c r="F122" s="18" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G122" s="17"/>
       <c r="H122" s="21" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="I122" s="21" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="J122" s="17"/>
       <c r="K122" s="18" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="L122" s="22" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="N122" s="16"/>
     </row>
@@ -10851,10 +10822,10 @@
       </c>
       <c r="B123" s="26"/>
       <c r="C123" s="14" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E123" s="17"/>
       <c r="F123" s="87">
@@ -10862,22 +10833,22 @@
       </c>
       <c r="G123" s="17"/>
       <c r="H123" s="21" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I123" s="21" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J123" s="17" t="s">
         <v>1085</v>
       </c>
-      <c r="I123" s="21" t="s">
+      <c r="K123" s="18" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L123" s="22" t="s">
         <v>1086</v>
       </c>
-      <c r="J123" s="17" t="s">
+      <c r="M123" s="20" t="s">
         <v>1087</v>
-      </c>
-      <c r="K123" s="18" t="s">
-        <v>1083</v>
-      </c>
-      <c r="L123" s="22" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M123" s="20" t="s">
-        <v>1089</v>
       </c>
       <c r="N123" s="16"/>
     </row>
@@ -10887,7 +10858,7 @@
       </c>
       <c r="B124" s="26"/>
       <c r="C124" s="14" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="17">
@@ -10901,13 +10872,13 @@
       <c r="I124" s="21"/>
       <c r="J124" s="17"/>
       <c r="K124" s="18" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L124" s="22" t="s">
+        <v>1091</v>
+      </c>
+      <c r="M124" s="20" t="s">
         <v>1092</v>
-      </c>
-      <c r="L124" s="22" t="s">
-        <v>1093</v>
-      </c>
-      <c r="M124" s="20" t="s">
-        <v>1094</v>
       </c>
       <c r="N124" s="16"/>
     </row>
@@ -10919,35 +10890,35 @@
         <v>43636</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D125" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F125" s="17" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G125" s="17" t="s">
         <v>1101</v>
       </c>
-      <c r="E125" s="17" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F125" s="17" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G125" s="17" t="s">
-        <v>1103</v>
-      </c>
       <c r="H125" s="33" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="I125" s="21"/>
       <c r="J125" s="18" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K125" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="L125" s="22" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="N125" s="16"/>
     </row>
@@ -10957,7 +10928,7 @@
       </c>
       <c r="B126" s="26"/>
       <c r="C126" s="28" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="17"/>
@@ -10967,13 +10938,13 @@
       <c r="I126" s="21"/>
       <c r="J126" s="18"/>
       <c r="K126" s="18" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="L126" s="22" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="N126" s="16"/>
     </row>
@@ -10983,31 +10954,31 @@
       </c>
       <c r="B127" s="26"/>
       <c r="C127" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E127" s="17"/>
       <c r="F127" s="17" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="G127" s="17"/>
       <c r="H127" s="33" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="I127" s="21" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="J127" s="18"/>
       <c r="K127" s="18" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L127" s="22" t="s">
         <v>1118</v>
       </c>
-      <c r="L127" s="22" t="s">
-        <v>1120</v>
-      </c>
       <c r="M127" s="20" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="N127" s="16"/>
     </row>
@@ -11017,7 +10988,7 @@
       </c>
       <c r="B128" s="26"/>
       <c r="C128" s="14" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="17">
@@ -11033,7 +11004,7 @@
         <v>80</v>
       </c>
       <c r="K128" s="18" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="L128" s="22"/>
       <c r="M128" s="20"/>
@@ -11045,10 +11016,10 @@
       </c>
       <c r="B129" s="26"/>
       <c r="C129" s="14" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E129" s="17"/>
       <c r="F129" s="17"/>
@@ -11057,13 +11028,13 @@
       <c r="I129" s="21"/>
       <c r="J129" s="18"/>
       <c r="K129" s="18" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L129" s="22" t="s">
         <v>1130</v>
       </c>
-      <c r="L129" s="22" t="s">
-        <v>1132</v>
-      </c>
       <c r="M129" s="20" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="N129" s="16"/>
     </row>
@@ -11073,10 +11044,10 @@
       </c>
       <c r="B130" s="26"/>
       <c r="C130" s="14" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E130" s="17">
         <v>1900</v>
@@ -11085,17 +11056,17 @@
         <v>190</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H130" s="33"/>
       <c r="I130" s="21"/>
       <c r="J130" s="18"/>
       <c r="K130" s="18" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L130" s="22"/>
       <c r="M130" s="20" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="N130" s="16"/>
     </row>
@@ -11105,10 +11076,10 @@
       </c>
       <c r="B131" s="26"/>
       <c r="C131" s="14" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E131" s="17">
         <v>2750</v>
@@ -11118,20 +11089,20 @@
       </c>
       <c r="G131" s="17"/>
       <c r="H131" s="33" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="I131" s="33" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="J131" s="18">
         <v>50</v>
       </c>
       <c r="K131" s="18" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="L131" s="22"/>
       <c r="M131" s="20" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="N131" s="16"/>
     </row>
@@ -11141,10 +11112,10 @@
       </c>
       <c r="B132" s="26"/>
       <c r="C132" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E132" s="17">
         <v>2250</v>
@@ -11154,16 +11125,16 @@
       </c>
       <c r="G132" s="17"/>
       <c r="H132" s="33" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="I132" s="21"/>
       <c r="J132" s="18"/>
       <c r="K132" s="18" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="L132" s="22"/>
       <c r="M132" s="20" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="N132" s="16"/>
     </row>
@@ -11173,31 +11144,31 @@
       </c>
       <c r="B133" s="26"/>
       <c r="C133" s="14" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E133" s="17"/>
       <c r="F133" s="17" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G133" s="17"/>
       <c r="H133" s="33"/>
       <c r="I133" s="33" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="J133" s="18">
         <v>200</v>
       </c>
       <c r="K133" s="18" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="L133" s="22" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="N133" s="16"/>
     </row>
@@ -11207,27 +11178,27 @@
       </c>
       <c r="B134" s="26"/>
       <c r="C134" s="28" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E134" s="17"/>
       <c r="F134" s="17" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G134" s="17"/>
       <c r="H134" s="33" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="I134" s="21"/>
       <c r="J134" s="18"/>
       <c r="K134" s="18" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="L134" s="22"/>
       <c r="M134" s="20" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="N134" s="16"/>
     </row>
@@ -11237,10 +11208,10 @@
       </c>
       <c r="B135" s="26"/>
       <c r="C135" s="28" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E135" s="17">
         <v>2000</v>
@@ -11251,19 +11222,19 @@
       <c r="G135" s="17"/>
       <c r="H135" s="33"/>
       <c r="I135" s="21" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="J135" s="18">
         <v>50</v>
       </c>
       <c r="K135" s="18" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="L135" s="22" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="M135" s="20" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="N135" s="16"/>
     </row>
@@ -11273,10 +11244,10 @@
       </c>
       <c r="B136" s="26"/>
       <c r="C136" s="28" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E136" s="17">
         <v>3000</v>
@@ -11287,15 +11258,15 @@
       <c r="G136" s="17"/>
       <c r="H136" s="33"/>
       <c r="I136" s="21" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="J136" s="18"/>
       <c r="K136" s="18" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="L136" s="22"/>
       <c r="M136" s="20" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="N136" s="16"/>
     </row>
@@ -11305,25 +11276,25 @@
       </c>
       <c r="B137" s="26"/>
       <c r="C137" s="28" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E137" s="17"/>
       <c r="F137" s="17" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G137" s="17"/>
       <c r="H137" s="33"/>
       <c r="I137" s="21"/>
       <c r="J137" s="18"/>
       <c r="K137" s="18" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="L137" s="22"/>
       <c r="M137" s="20" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="N137" s="16"/>
     </row>
@@ -11333,24 +11304,24 @@
       </c>
       <c r="B138" s="26"/>
       <c r="C138" s="28" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E138" s="17"/>
       <c r="F138" s="17" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G138" s="17"/>
       <c r="H138" s="33"/>
       <c r="I138" s="21"/>
       <c r="J138" s="18"/>
       <c r="K138" s="18" t="s">
+        <v>1169</v>
+      </c>
+      <c r="L138" s="22" t="s">
         <v>1171</v>
-      </c>
-      <c r="L138" s="22" t="s">
-        <v>1173</v>
       </c>
       <c r="M138" s="20"/>
       <c r="N138" s="16"/>
@@ -11361,7 +11332,7 @@
       </c>
       <c r="B139" s="26"/>
       <c r="C139" s="28" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="17">
@@ -11373,11 +11344,11 @@
       <c r="G139" s="17"/>
       <c r="H139" s="33"/>
       <c r="I139" s="21" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="J139" s="18"/>
       <c r="K139" s="18" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="L139" s="22"/>
       <c r="M139" s="20"/>
@@ -11389,10 +11360,10 @@
       </c>
       <c r="B140" s="26"/>
       <c r="C140" s="28" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E140" s="17">
         <v>2500</v>
@@ -11402,18 +11373,18 @@
       </c>
       <c r="G140" s="17"/>
       <c r="H140" s="33" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="I140" s="21"/>
       <c r="J140" s="18">
         <v>100</v>
       </c>
       <c r="K140" s="18" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="L140" s="22"/>
       <c r="M140" s="20" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="N140" s="16"/>
     </row>
@@ -11423,10 +11394,10 @@
       </c>
       <c r="B141" s="26"/>
       <c r="C141" s="28" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E141" s="17">
         <v>350</v>
@@ -11439,10 +11410,10 @@
       <c r="I141" s="21"/>
       <c r="J141" s="18"/>
       <c r="K141" s="18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="L141" s="22" t="s">
         <v>1181</v>
-      </c>
-      <c r="L141" s="22" t="s">
-        <v>1183</v>
       </c>
       <c r="M141" s="20"/>
       <c r="N141" s="16"/>
@@ -11461,13 +11432,13 @@
       <c r="I142" s="17"/>
       <c r="J142" s="18"/>
       <c r="K142" s="18" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="L142" s="23" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="M142" s="20" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="N142" s="16"/>
     </row>
@@ -11477,26 +11448,26 @@
       </c>
       <c r="B143" s="26"/>
       <c r="C143" s="28" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="17"/>
       <c r="F143" s="17" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="G143" s="21"/>
       <c r="H143" s="21" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="I143" s="17"/>
       <c r="J143" s="18" t="s">
+        <v>1188</v>
+      </c>
+      <c r="K143" s="18" t="s">
         <v>1190</v>
       </c>
-      <c r="K143" s="18" t="s">
-        <v>1192</v>
-      </c>
       <c r="L143" s="22" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="M143" s="20"/>
       <c r="N143" s="16"/>
@@ -11507,10 +11478,10 @@
       </c>
       <c r="B144" s="26"/>
       <c r="C144" s="28" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E144" s="17"/>
       <c r="F144" s="17"/>
@@ -11519,11 +11490,11 @@
       <c r="I144" s="17"/>
       <c r="J144" s="18"/>
       <c r="K144" s="18" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="L144" s="22"/>
       <c r="M144" s="20" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="N144" s="16"/>
     </row>
@@ -11533,7 +11504,7 @@
       </c>
       <c r="B145" s="26"/>
       <c r="C145" s="28" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="17">
@@ -11544,18 +11515,18 @@
       </c>
       <c r="G145" s="21"/>
       <c r="H145" s="33" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="I145" s="17"/>
       <c r="J145" s="18"/>
       <c r="K145" s="18" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L145" s="22" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M145" s="20" t="s">
         <v>1206</v>
-      </c>
-      <c r="L145" s="22" t="s">
-        <v>1209</v>
-      </c>
-      <c r="M145" s="20" t="s">
-        <v>1208</v>
       </c>
       <c r="N145" s="16"/>
     </row>
@@ -11565,23 +11536,23 @@
       </c>
       <c r="B146" s="26"/>
       <c r="C146" s="28" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="17"/>
       <c r="F146" s="17" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="G146" s="21"/>
       <c r="H146" s="21" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I146" s="18" t="s">
         <v>1212</v>
-      </c>
-      <c r="I146" s="18" t="s">
-        <v>1214</v>
       </c>
       <c r="J146" s="18"/>
       <c r="K146" s="18" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="L146" s="22"/>
       <c r="M146" s="20"/>
@@ -11593,7 +11564,7 @@
       </c>
       <c r="B147" s="26"/>
       <c r="C147" s="28" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="17"/>
@@ -11603,10 +11574,10 @@
       <c r="I147" s="17"/>
       <c r="J147" s="18"/>
       <c r="K147" s="18" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="L147" s="22" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="M147" s="20"/>
       <c r="N147" s="16"/>
@@ -11617,7 +11588,7 @@
       </c>
       <c r="B148" s="26"/>
       <c r="C148" s="28" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="17">
@@ -11631,13 +11602,13 @@
       <c r="I148" s="17"/>
       <c r="J148" s="18"/>
       <c r="K148" s="18" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="L148" s="22" t="s">
+        <v>1216</v>
+      </c>
+      <c r="M148" s="20" t="s">
         <v>1218</v>
-      </c>
-      <c r="M148" s="20" t="s">
-        <v>1220</v>
       </c>
       <c r="N148" s="16"/>
     </row>
@@ -11647,7 +11618,7 @@
       </c>
       <c r="B149" s="26"/>
       <c r="C149" s="28" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="17"/>
@@ -11657,13 +11628,13 @@
       <c r="I149" s="17"/>
       <c r="J149" s="18"/>
       <c r="K149" s="18" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L149" s="22" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="N149" s="16"/>
     </row>
@@ -11673,7 +11644,7 @@
       </c>
       <c r="B150" s="26"/>
       <c r="C150" s="28" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="17"/>
@@ -11683,13 +11654,13 @@
       <c r="I150" s="17"/>
       <c r="J150" s="18"/>
       <c r="K150" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L150" s="22" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N150" s="16"/>
     </row>
@@ -11707,10 +11678,10 @@
       <c r="I151" s="17"/>
       <c r="J151" s="18"/>
       <c r="K151" s="18" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="L151" s="22" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="M151" s="20"/>
       <c r="N151" s="16"/>
@@ -11721,10 +11692,10 @@
       </c>
       <c r="B152" s="26"/>
       <c r="C152" s="28" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E152" s="17"/>
       <c r="F152" s="17"/>
@@ -11735,13 +11706,13 @@
       </c>
       <c r="J152" s="18"/>
       <c r="K152" s="18" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L152" s="22" t="s">
         <v>1240</v>
       </c>
-      <c r="L152" s="22" t="s">
-        <v>1242</v>
-      </c>
       <c r="M152" s="20" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="N152" s="16"/>
     </row>
@@ -11751,10 +11722,10 @@
       </c>
       <c r="B153" s="26"/>
       <c r="C153" s="28" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E153" s="17"/>
       <c r="F153" s="17">
@@ -11762,18 +11733,18 @@
       </c>
       <c r="G153" s="21"/>
       <c r="H153" s="33" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I153" s="17"/>
       <c r="J153" s="18"/>
       <c r="K153" s="18" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="L153" s="22" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="N153" s="16"/>
     </row>
@@ -11783,7 +11754,7 @@
       </c>
       <c r="B154" s="26"/>
       <c r="C154" s="28" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="17">
@@ -11797,10 +11768,10 @@
       <c r="I154" s="17"/>
       <c r="J154" s="18"/>
       <c r="K154" s="18" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L154" s="22" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="M154" s="20"/>
       <c r="N154" s="16"/>
@@ -11819,11 +11790,11 @@
       <c r="I155" s="17"/>
       <c r="J155" s="18"/>
       <c r="K155" s="18" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="L155" s="22"/>
       <c r="M155" s="20" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="N155" s="16"/>
     </row>
@@ -11833,25 +11804,25 @@
       </c>
       <c r="B156" s="26"/>
       <c r="C156" s="28" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="17"/>
       <c r="F156" s="17"/>
       <c r="G156" s="21"/>
       <c r="H156" s="33" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I156" s="17"/>
       <c r="J156" s="18"/>
       <c r="K156" s="18" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="L156" s="22" t="s">
+        <v>1248</v>
+      </c>
+      <c r="M156" s="20" t="s">
         <v>1250</v>
-      </c>
-      <c r="M156" s="20" t="s">
-        <v>1252</v>
       </c>
       <c r="N156" s="16"/>
     </row>
@@ -11861,22 +11832,22 @@
       </c>
       <c r="B157" s="26"/>
       <c r="C157" s="14" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="17"/>
       <c r="F157" s="18" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="G157" s="17"/>
       <c r="H157" s="21"/>
       <c r="I157" s="21"/>
       <c r="J157" s="17"/>
       <c r="K157" s="18" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="L157" s="22" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="M157" s="20"/>
       <c r="N157" s="16"/>
@@ -12018,7 +11989,7 @@
       <c r="N165" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D423" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:D423"/>
   <mergeCells count="13">
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -12046,7 +12017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -12432,7 +12403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O292"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -12458,7 +12429,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="25.2" x14ac:dyDescent="0.4">
       <c r="A1" s="91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -12487,7 +12458,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" s="99" t="s">
         <v>50</v>
@@ -12537,7 +12508,7 @@
         <v>43249</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="17"/>
@@ -12547,10 +12518,10 @@
       <c r="I4" s="17"/>
       <c r="J4" s="18"/>
       <c r="K4" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="20" t="s">
         <v>152</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>153</v>
       </c>
       <c r="M4" s="20"/>
     </row>
@@ -12571,19 +12542,19 @@
         <v>26000</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="L5" s="30" t="s">
         <v>178</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>179</v>
       </c>
       <c r="M5" s="20"/>
     </row>
@@ -12595,28 +12566,28 @@
         <v>43258</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E6" s="17">
         <v>25000</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="20" t="s">
         <v>330</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>331</v>
       </c>
       <c r="M6" s="20"/>
     </row>
@@ -12628,28 +12599,28 @@
         <v>43258</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>333</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>334</v>
       </c>
       <c r="E7" s="17">
         <v>52000</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>336</v>
-      </c>
       <c r="L7" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M7" s="20"/>
     </row>
@@ -12661,28 +12632,28 @@
         <v>43258</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E8" s="17">
         <v>26000</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K8" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="L8" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>342</v>
       </c>
       <c r="M8" s="20"/>
     </row>
@@ -12694,28 +12665,28 @@
         <v>43258</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>339</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>340</v>
       </c>
       <c r="E9" s="17">
         <v>27000</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>344</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>345</v>
       </c>
       <c r="M9" s="20"/>
     </row>
@@ -12727,28 +12698,28 @@
         <v>43270</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" s="17">
         <v>31</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="L10" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>736</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="M10" s="16"/>
     </row>
@@ -12760,7 +12731,7 @@
         <v>43270</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="17"/>
@@ -12769,13 +12740,13 @@
       <c r="H11" s="21"/>
       <c r="I11" s="17"/>
       <c r="J11" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M11" s="16"/>
     </row>
@@ -12787,28 +12758,28 @@
         <v>43285</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="E12" s="17">
         <v>16</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="L12" s="20" t="s">
         <v>166</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>167</v>
       </c>
       <c r="M12" s="16"/>
     </row>
@@ -12820,28 +12791,28 @@
         <v>43292</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="17">
         <v>30</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="17"/>
       <c r="J13" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="20" t="s">
         <v>169</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>170</v>
       </c>
       <c r="M13" s="16"/>
     </row>
@@ -12853,7 +12824,7 @@
         <v>43292</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="17"/>
@@ -12862,13 +12833,13 @@
       <c r="H14" s="21"/>
       <c r="I14" s="17"/>
       <c r="J14" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="L14" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>183</v>
       </c>
       <c r="M14" s="16"/>
     </row>
@@ -12880,32 +12851,32 @@
         <v>43321</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>218</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I15" s="17">
         <v>275</v>
       </c>
       <c r="J15" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="L15" s="20" t="s">
         <v>224</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>225</v>
       </c>
       <c r="M15" s="16"/>
     </row>
@@ -12917,24 +12888,24 @@
         <v>43326</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="17"/>
       <c r="J16" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -12946,24 +12917,24 @@
         <v>43326</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="17"/>
       <c r="J17" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -12975,24 +12946,24 @@
         <v>43328</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="17"/>
       <c r="J18" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -13004,24 +12975,24 @@
         <v>43342</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="17"/>
       <c r="J19" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -13033,32 +13004,32 @@
         <v>43406</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="21" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="I20" s="17">
         <v>500</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -13070,34 +13041,34 @@
         <v>43804</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E21" s="17">
         <v>30</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I21" s="17">
         <v>950</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -13114,7 +13085,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="17"/>
       <c r="J22" s="18" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="K22" s="22"/>
       <c r="L22" s="20"/>
@@ -13126,26 +13097,26 @@
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="14" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="17" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="18" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="M23" s="16"/>
     </row>
@@ -13155,11 +13126,11 @@
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="14" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="17" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="21"/>
@@ -13168,13 +13139,13 @@
         <v>500</v>
       </c>
       <c r="J24" s="18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L24" s="20" t="s">
         <v>1040</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>1043</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>1042</v>
       </c>
       <c r="M24" s="16"/>
     </row>
@@ -13193,13 +13164,13 @@
       <c r="H25" s="21"/>
       <c r="I25" s="17"/>
       <c r="J25" s="18" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="M25" s="16"/>
     </row>
@@ -13207,22 +13178,22 @@
       <c r="A26" s="86"/>
       <c r="B26" s="26"/>
       <c r="C26" s="28" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="17" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="17"/>
       <c r="J26" s="18" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="K26" s="22"/>
       <c r="L26" s="20" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="M26" s="16"/>
     </row>
@@ -13234,32 +13205,32 @@
         <v>43636</v>
       </c>
       <c r="C27" s="14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>1100</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="F27" s="17" t="s">
         <v>1101</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="G27" s="33" t="s">
         <v>1102</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>1103</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>1104</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="18" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="M27" s="16"/>
     </row>
@@ -13269,23 +13240,23 @@
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="14" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="17" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="33" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="17"/>
       <c r="J28" s="18" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="16"/>
@@ -13296,14 +13267,14 @@
       <c r="C29" s="14"/>
       <c r="D29" s="9"/>
       <c r="E29" s="17" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="17"/>
       <c r="J29" s="18" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="K29" s="23"/>
       <c r="L29" s="20"/>
@@ -13315,14 +13286,14 @@
       <c r="C30" s="14"/>
       <c r="D30" s="9"/>
       <c r="E30" s="17" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="17"/>
       <c r="J30" s="18" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="K30" s="23"/>
       <c r="L30" s="20"/>
@@ -13341,13 +13312,13 @@
       <c r="H31" s="21"/>
       <c r="I31" s="17"/>
       <c r="J31" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K31" s="22" t="s">
         <v>1221</v>
       </c>
-      <c r="K31" s="22" t="s">
-        <v>1223</v>
-      </c>
       <c r="L31" s="20" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="M31" s="16"/>
     </row>
@@ -13357,24 +13328,24 @@
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="14" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="17" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="17"/>
       <c r="J32" s="18" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="L32" s="20" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="M32" s="16"/>
     </row>
@@ -13391,13 +13362,13 @@
       <c r="H33" s="21"/>
       <c r="I33" s="17"/>
       <c r="J33" s="18" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K33" s="23" t="s">
         <v>1233</v>
       </c>
-      <c r="K33" s="23" t="s">
-        <v>1235</v>
-      </c>
       <c r="L33" s="20" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="M33" s="16"/>
     </row>
@@ -17049,7 +17020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -17080,7 +17051,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="91" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="92"/>
@@ -17166,10 +17137,10 @@
         <v>43249</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -17178,13 +17149,13 @@
       <c r="I4" s="21"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>261</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>262</v>
       </c>
       <c r="N4" s="16"/>
     </row>
@@ -17196,10 +17167,10 @@
         <v>43250</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
@@ -17208,13 +17179,13 @@
       <c r="I5" s="21"/>
       <c r="J5" s="17"/>
       <c r="K5" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>265</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>266</v>
       </c>
       <c r="N5" s="20"/>
     </row>
@@ -17226,10 +17197,10 @@
         <v>43252</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
@@ -17238,16 +17209,16 @@
       <c r="I6" s="21"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L6" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>270</v>
-      </c>
       <c r="N6" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.4">
@@ -17258,7 +17229,7 @@
         <v>43262</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="17"/>
@@ -17268,13 +17239,13 @@
       <c r="I7" s="21"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N7" s="16"/>
     </row>
@@ -17286,10 +17257,10 @@
         <v>43262</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -17298,10 +17269,10 @@
       <c r="I8" s="21"/>
       <c r="J8" s="17"/>
       <c r="K8" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>276</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>277</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="16"/>
@@ -17314,10 +17285,10 @@
         <v>43279</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
@@ -17326,13 +17297,13 @@
       <c r="I9" s="21"/>
       <c r="J9" s="17"/>
       <c r="K9" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="M9" s="20" t="s">
         <v>280</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>281</v>
       </c>
       <c r="N9" s="16"/>
     </row>
@@ -17344,10 +17315,10 @@
         <v>43284</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
@@ -17356,13 +17327,13 @@
       <c r="I10" s="21"/>
       <c r="J10" s="17"/>
       <c r="K10" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="L10" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="M10" s="20" t="s">
         <v>283</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>284</v>
       </c>
       <c r="N10" s="16"/>
     </row>
@@ -17374,10 +17345,10 @@
         <v>43285</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -17386,13 +17357,13 @@
       <c r="I11" s="21"/>
       <c r="J11" s="17"/>
       <c r="K11" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="L11" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="M11" s="20" t="s">
         <v>288</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>289</v>
       </c>
       <c r="N11" s="16"/>
     </row>
@@ -17404,7 +17375,7 @@
         <v>43292</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="17"/>
@@ -17414,13 +17385,13 @@
       <c r="I12" s="21"/>
       <c r="J12" s="17"/>
       <c r="K12" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N12" s="16"/>
     </row>
@@ -17432,10 +17403,10 @@
         <v>43298</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
@@ -17444,11 +17415,11 @@
       <c r="I13" s="21"/>
       <c r="J13" s="17"/>
       <c r="K13" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N13" s="16"/>
     </row>
@@ -17460,7 +17431,7 @@
         <v>43298</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="17"/>
@@ -17470,11 +17441,11 @@
       <c r="I14" s="21"/>
       <c r="J14" s="17"/>
       <c r="K14" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N14" s="16"/>
     </row>
@@ -17486,10 +17457,10 @@
         <v>43332</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -17498,13 +17469,13 @@
       <c r="I15" s="21"/>
       <c r="J15" s="17"/>
       <c r="K15" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="M15" s="20" t="s">
         <v>447</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>448</v>
       </c>
       <c r="N15" s="16"/>
     </row>
@@ -17522,7 +17493,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="17"/>
       <c r="K16" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L16" s="23"/>
       <c r="M16" s="20"/>
@@ -17536,10 +17507,10 @@
         <v>43335</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -17548,13 +17519,13 @@
       <c r="I17" s="21"/>
       <c r="J17" s="17"/>
       <c r="K17" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="M17" s="20" t="s">
         <v>317</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>318</v>
       </c>
       <c r="N17" s="16"/>
     </row>
@@ -17566,10 +17537,10 @@
         <v>43335</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -17578,13 +17549,13 @@
       <c r="I18" s="21"/>
       <c r="J18" s="17"/>
       <c r="K18" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="L18" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="M18" s="20" t="s">
         <v>322</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>323</v>
       </c>
       <c r="N18" s="16"/>
     </row>
@@ -17596,10 +17567,10 @@
         <v>43341</v>
       </c>
       <c r="C19" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>349</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
@@ -17608,13 +17579,13 @@
       <c r="I19" s="21"/>
       <c r="J19" s="17"/>
       <c r="K19" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L19" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="M19" s="20" t="s">
         <v>350</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>351</v>
       </c>
       <c r="N19" s="16"/>
     </row>
@@ -17626,29 +17597,29 @@
         <v>43341</v>
       </c>
       <c r="C20" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>354</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>355</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
       <c r="H20" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="17">
         <v>200</v>
       </c>
       <c r="K20" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="M20" s="20" t="s">
         <v>352</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>353</v>
       </c>
       <c r="N20" s="16"/>
     </row>
@@ -17660,29 +17631,29 @@
         <v>43342</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
       <c r="H21" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N21" s="16"/>
     </row>
@@ -17702,13 +17673,13 @@
       <c r="I22" s="21"/>
       <c r="J22" s="17"/>
       <c r="K22" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N22" s="16"/>
     </row>
@@ -17720,13 +17691,13 @@
         <v>43343</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>402</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>403</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="17"/>
@@ -17735,10 +17706,10 @@
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
       <c r="L23" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="M23" s="20" t="s">
         <v>404</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>405</v>
       </c>
       <c r="N23" s="16"/>
     </row>
@@ -17749,24 +17720,24 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>411</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>412</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="17"/>
       <c r="K24" s="18"/>
       <c r="L24" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N24" s="16"/>
     </row>
@@ -17776,13 +17747,13 @@
         <v>43353</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="17" t="s">
         <v>429</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>430</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="17"/>
@@ -17790,13 +17761,13 @@
       <c r="I25" s="21"/>
       <c r="J25" s="17"/>
       <c r="K25" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N25" s="16"/>
     </row>
@@ -17806,11 +17777,11 @@
         <v>43354</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -17818,10 +17789,10 @@
       <c r="I26" s="21"/>
       <c r="J26" s="17"/>
       <c r="K26" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="L26" s="22" t="s">
         <v>435</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>436</v>
       </c>
       <c r="M26" s="20"/>
       <c r="N26" s="16"/>
@@ -17832,13 +17803,13 @@
         <v>43357</v>
       </c>
       <c r="C27" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="17" t="s">
         <v>444</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>445</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -17846,11 +17817,11 @@
       <c r="I27" s="21"/>
       <c r="J27" s="17"/>
       <c r="K27" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L27" s="23"/>
       <c r="M27" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N27" s="16"/>
     </row>
@@ -17860,27 +17831,27 @@
         <v>43348</v>
       </c>
       <c r="C28" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="17"/>
       <c r="K28" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="M28" s="20" t="s">
         <v>451</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>452</v>
       </c>
       <c r="N28" s="16"/>
     </row>
@@ -17891,7 +17862,7 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -17902,7 +17873,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="23"/>
       <c r="M29" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N29" s="16"/>
     </row>
@@ -17912,27 +17883,27 @@
         <v>43361</v>
       </c>
       <c r="C30" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="17"/>
       <c r="K30" s="18"/>
       <c r="L30" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N30" s="16"/>
     </row>
@@ -17942,7 +17913,7 @@
         <v>43361</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="17"/>
@@ -17952,16 +17923,16 @@
       <c r="I31" s="21"/>
       <c r="J31" s="17"/>
       <c r="K31" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="M31" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="L31" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="M31" s="20" t="s">
-        <v>515</v>
-      </c>
       <c r="N31" s="16" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -17978,11 +17949,11 @@
       <c r="I32" s="21"/>
       <c r="J32" s="17"/>
       <c r="K32" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L32" s="22"/>
       <c r="M32" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N32" s="16"/>
     </row>
@@ -17990,31 +17961,31 @@
       <c r="A33" s="44"/>
       <c r="B33" s="26"/>
       <c r="C33" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>616</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>617</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="I33" s="21" t="s">
         <v>618</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>619</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="N33" s="16"/>
     </row>
@@ -18024,27 +17995,27 @@
         <v>43403</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="17" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="21" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="17"/>
       <c r="K34" s="18" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="N34" s="16"/>
     </row>
@@ -18063,10 +18034,10 @@
       <c r="J35" s="17"/>
       <c r="K35" s="18"/>
       <c r="L35" s="22" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N35" s="16"/>
     </row>
@@ -18076,11 +18047,11 @@
         <v>43409</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="17" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="17"/>
@@ -18089,10 +18060,10 @@
       <c r="J36" s="17"/>
       <c r="K36" s="18"/>
       <c r="L36" s="22" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="N36" s="16"/>
     </row>
@@ -18102,10 +18073,10 @@
         <v>43414</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -18114,13 +18085,13 @@
       <c r="I37" s="21"/>
       <c r="J37" s="17"/>
       <c r="K37" s="18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L37" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="M37" s="20" t="s">
         <v>675</v>
-      </c>
-      <c r="M37" s="20" t="s">
-        <v>677</v>
       </c>
       <c r="N37" s="16"/>
     </row>
@@ -18132,13 +18103,13 @@
         <v>43789</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -18146,16 +18117,16 @@
       <c r="I38" s="21"/>
       <c r="J38" s="17"/>
       <c r="K38" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="L38" s="22" t="s">
         <v>728</v>
       </c>
-      <c r="L38" s="22" t="s">
-        <v>730</v>
-      </c>
       <c r="M38" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="N38" s="16" t="s">
         <v>729</v>
-      </c>
-      <c r="N38" s="16" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -18174,13 +18145,13 @@
       <c r="I39" s="21"/>
       <c r="J39" s="17"/>
       <c r="K39" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="L39" s="22" t="s">
         <v>732</v>
       </c>
-      <c r="L39" s="22" t="s">
-        <v>734</v>
-      </c>
       <c r="M39" s="20" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="N39" s="16"/>
     </row>
@@ -18192,11 +18163,11 @@
         <v>43804</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -18204,13 +18175,13 @@
       <c r="I40" s="21"/>
       <c r="J40" s="17"/>
       <c r="K40" s="18" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="N40" s="16"/>
     </row>
@@ -18220,27 +18191,27 @@
         <v>43470</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="17" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="21" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="I41" s="21"/>
       <c r="J41" s="17"/>
       <c r="K41" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="M41" s="20" t="s">
         <v>857</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>858</v>
-      </c>
-      <c r="M41" s="20" t="s">
-        <v>859</v>
       </c>
       <c r="N41" s="16"/>
     </row>
@@ -18256,13 +18227,13 @@
       <c r="I42" s="21"/>
       <c r="J42" s="17"/>
       <c r="K42" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="L42" s="22" t="s">
         <v>860</v>
       </c>
-      <c r="L42" s="22" t="s">
-        <v>862</v>
-      </c>
       <c r="M42" s="20" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="N42" s="16"/>
     </row>
@@ -18272,7 +18243,7 @@
       <c r="C43" s="14"/>
       <c r="D43" s="9"/>
       <c r="E43" s="17" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -18280,13 +18251,13 @@
       <c r="I43" s="21"/>
       <c r="J43" s="17"/>
       <c r="K43" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="L43" s="22" t="s">
         <v>867</v>
       </c>
-      <c r="L43" s="22" t="s">
-        <v>869</v>
-      </c>
       <c r="M43" s="20" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="N43" s="16"/>
     </row>
@@ -18296,29 +18267,29 @@
         <v>43470</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="17" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="21" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="17">
         <v>100</v>
       </c>
       <c r="K44" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="L44" s="22" t="s">
         <v>872</v>
       </c>
-      <c r="L44" s="22" t="s">
-        <v>874</v>
-      </c>
       <c r="M44" s="20" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="N44" s="16"/>
     </row>
@@ -18328,29 +18299,29 @@
         <v>43470</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="17" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="21" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="17">
         <v>50</v>
       </c>
       <c r="K45" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="L45" s="22" t="s">
         <v>894</v>
       </c>
-      <c r="L45" s="22" t="s">
-        <v>896</v>
-      </c>
       <c r="M45" s="20" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="N45" s="16"/>
     </row>
@@ -18360,27 +18331,27 @@
         <v>43566</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="17" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="21" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="17"/>
       <c r="K46" s="18" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="N46" s="16"/>
     </row>
@@ -18398,13 +18369,13 @@
       <c r="I47" s="21"/>
       <c r="J47" s="17"/>
       <c r="K47" s="18" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="L47" s="22" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M47" s="20" t="s">
         <v>1031</v>
-      </c>
-      <c r="M47" s="20" t="s">
-        <v>1033</v>
       </c>
       <c r="N47" s="16"/>
     </row>
@@ -18414,24 +18385,24 @@
         <v>43545</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="17" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="21" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I48" s="21"/>
       <c r="J48" s="17"/>
       <c r="K48" s="18" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="M48" s="20"/>
       <c r="N48" s="16"/>
@@ -18448,13 +18419,13 @@
       <c r="I49" s="21"/>
       <c r="J49" s="17"/>
       <c r="K49" s="18" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="N49" s="16"/>
     </row>
@@ -18470,13 +18441,13 @@
       <c r="I50" s="21"/>
       <c r="J50" s="17"/>
       <c r="K50" s="18" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L50" s="22" t="s">
         <v>1055</v>
       </c>
-      <c r="L50" s="22" t="s">
-        <v>1057</v>
-      </c>
       <c r="M50" s="20" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="N50" s="16"/>
     </row>
@@ -18492,10 +18463,10 @@
       <c r="I51" s="21"/>
       <c r="J51" s="17"/>
       <c r="K51" s="18" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="M51" s="20"/>
       <c r="N51" s="16"/>
@@ -18520,11 +18491,11 @@
       <c r="A53" s="44"/>
       <c r="B53" s="26"/>
       <c r="C53" s="14" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="17" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
@@ -18532,7 +18503,7 @@
       <c r="I53" s="21"/>
       <c r="J53" s="17"/>
       <c r="K53" s="18" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="L53" s="22"/>
       <c r="M53" s="20"/>
@@ -18569,7 +18540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -18683,31 +18654,31 @@
         <v>43292</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="17">
         <v>16250000</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="21" t="s">
         <v>53</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="M4" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>115</v>
       </c>
       <c r="N4" s="16"/>
     </row>
@@ -18717,7 +18688,7 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>60</v>
@@ -18729,12 +18700,12 @@
       <c r="I5" s="21"/>
       <c r="J5" s="17"/>
       <c r="K5" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L5" s="22"/>
       <c r="M5" s="20"/>
       <c r="N5" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -18743,33 +18714,33 @@
         <v>43342</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I6" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="J6" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>379</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>565</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>380</v>
       </c>
       <c r="N6" s="16"/>
     </row>
@@ -18781,17 +18752,17 @@
         <v>43285</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21" t="s">
@@ -18801,13 +18772,13 @@
         <v>150</v>
       </c>
       <c r="K7" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="M7" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>99</v>
       </c>
       <c r="N7" s="16"/>
     </row>
@@ -18819,34 +18790,34 @@
         <v>43326</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="J8" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="L8" s="22" t="s">
         <v>239</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>240</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -18855,7 +18826,7 @@
         <v>43258</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="17">
@@ -18869,13 +18840,13 @@
       <c r="I9" s="21"/>
       <c r="J9" s="18"/>
       <c r="K9" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N9" s="16"/>
     </row>
@@ -18887,7 +18858,7 @@
         <v>43263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>60</v>
@@ -18903,13 +18874,13 @@
       <c r="I10" s="21"/>
       <c r="J10" s="17"/>
       <c r="K10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="M10" s="20" t="s">
         <v>70</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="N10" s="16"/>
     </row>
@@ -18921,10 +18892,10 @@
         <v>43263</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="17">
         <v>2000</v>
@@ -18933,19 +18904,19 @@
         <v>200</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="17"/>
       <c r="K11" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="20" t="s">
         <v>80</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>81</v>
       </c>
       <c r="N11" s="16"/>
     </row>
@@ -18957,7 +18928,7 @@
         <v>43314</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>60</v>
@@ -18973,17 +18944,17 @@
         <v>54</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>190</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>191</v>
       </c>
       <c r="N12" s="16"/>
     </row>
@@ -18995,34 +18966,34 @@
         <v>43324</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="M13" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="L13" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>520</v>
-      </c>
       <c r="N13" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -19031,7 +19002,7 @@
         <v>43383</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>60</v>
@@ -19040,26 +19011,26 @@
         <v>13800000</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="21" t="s">
         <v>60</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J14" s="17">
         <v>30</v>
       </c>
       <c r="K14" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="M14" s="20" t="s">
         <v>572</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>573</v>
       </c>
       <c r="N14" s="16"/>
     </row>
@@ -19071,12 +19042,12 @@
         <v>43406</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="21" t="s">
@@ -19085,13 +19056,13 @@
       <c r="I15" s="21"/>
       <c r="J15" s="17"/>
       <c r="K15" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="L15" s="22" t="s">
         <v>664</v>
       </c>
-      <c r="L15" s="22" t="s">
-        <v>666</v>
-      </c>
       <c r="M15" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N15" s="16"/>
     </row>
@@ -19103,33 +19074,33 @@
         <v>43291</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="17">
         <v>2475</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="21" t="s">
         <v>53</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J16" s="17">
         <v>50</v>
       </c>
       <c r="K16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="22" t="s">
-        <v>107</v>
-      </c>
       <c r="M16" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N16" s="16"/>
     </row>
@@ -19141,30 +19112,30 @@
         <v>43332</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="17"/>
       <c r="K17" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M17" s="20"/>
       <c r="N17" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -19173,30 +19144,30 @@
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>53</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="18" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="L18" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="M18" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="M18" s="20" t="s">
-        <v>360</v>
-      </c>
       <c r="N18" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -19207,7 +19178,7 @@
         <v>43354</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="17"/>
@@ -19221,13 +19192,13 @@
         <v>160</v>
       </c>
       <c r="K19" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="M19" s="20" t="s">
         <v>438</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>439</v>
       </c>
       <c r="N19" s="16"/>
     </row>
@@ -19239,14 +19210,14 @@
         <v>43379</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="21" t="s">
@@ -19256,16 +19227,16 @@
         <v>53</v>
       </c>
       <c r="J20" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="K20" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="L20" s="22" t="s">
         <v>606</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="M20" s="20" t="s">
         <v>607</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>608</v>
       </c>
       <c r="N20" s="16"/>
     </row>
@@ -19277,12 +19248,12 @@
         <v>43406</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="21" t="s">
@@ -19291,13 +19262,13 @@
       <c r="I21" s="21"/>
       <c r="J21" s="17"/>
       <c r="K21" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="L21" s="22" t="s">
         <v>664</v>
       </c>
-      <c r="L21" s="22" t="s">
-        <v>666</v>
-      </c>
       <c r="M21" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N21" s="16"/>
     </row>
@@ -19309,35 +19280,35 @@
         <v>43415</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="21" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J22" s="17">
         <v>400</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="L22" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="M22" s="20" t="s">
         <v>691</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>693</v>
       </c>
       <c r="N22" s="16"/>
     </row>
@@ -19349,29 +19320,29 @@
         <v>43419</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="18" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="18" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="N23" s="16"/>
     </row>
@@ -19383,29 +19354,29 @@
         <v>43467</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="18" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="18" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="L24" s="22"/>
       <c r="M24" s="20" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="N24" s="16"/>
     </row>
@@ -19417,7 +19388,7 @@
         <v>43298</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>60</v>
@@ -19426,26 +19397,26 @@
         <v>17750000</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J25" s="17">
         <v>35</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L25" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" s="20" t="s">
         <v>140</v>
-      </c>
-      <c r="M25" s="20" t="s">
-        <v>141</v>
       </c>
       <c r="N25" s="16"/>
     </row>
@@ -19457,31 +19428,31 @@
         <v>43342</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D26" s="62" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="63"/>
       <c r="F26" s="63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G26" s="63"/>
       <c r="H26" s="64" t="s">
         <v>54</v>
       </c>
       <c r="I26" s="64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J26" s="63"/>
       <c r="K26" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="L26" s="66" t="s">
+        <v>386</v>
+      </c>
+      <c r="M26" s="67" t="s">
         <v>385</v>
-      </c>
-      <c r="L26" s="66" t="s">
-        <v>387</v>
-      </c>
-      <c r="M26" s="67" t="s">
-        <v>386</v>
       </c>
       <c r="N26" s="50"/>
     </row>
@@ -19497,7 +19468,7 @@
       <c r="I27" s="21"/>
       <c r="J27" s="17"/>
       <c r="K27" s="18" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L27" s="23"/>
       <c r="M27" s="20"/>
@@ -19507,7 +19478,7 @@
       <c r="A28" s="72"/>
       <c r="B28" s="26"/>
       <c r="C28" s="14" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="17"/>
@@ -19516,20 +19487,20 @@
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="21" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="17">
         <v>50</v>
       </c>
       <c r="K28" s="18" t="s">
+        <v>935</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="M28" s="20" t="s">
         <v>937</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>941</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>939</v>
       </c>
       <c r="N28" s="16"/>
     </row>
@@ -19545,13 +19516,13 @@
       <c r="I29" s="21"/>
       <c r="J29" s="17"/>
       <c r="K29" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="M29" s="20" t="s">
         <v>942</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="M29" s="20" t="s">
-        <v>944</v>
       </c>
       <c r="N29" s="16"/>
     </row>
@@ -19561,7 +19532,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="17">
@@ -19572,18 +19543,18 @@
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="21" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="17"/>
       <c r="K30" s="18" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="N30" s="16"/>
     </row>
@@ -19595,31 +19566,31 @@
         <v>43300</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="17">
         <v>25000000</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J31" s="17">
         <v>30</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L31" s="22"/>
       <c r="M31" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N31" s="16"/>
     </row>
@@ -19629,33 +19600,33 @@
         <v>43480</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="18" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J32" s="17">
         <v>50</v>
       </c>
       <c r="K32" s="18" t="s">
+        <v>882</v>
+      </c>
+      <c r="L32" s="22" t="s">
         <v>884</v>
       </c>
-      <c r="L32" s="22" t="s">
-        <v>886</v>
-      </c>
       <c r="M32" s="20" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="N32" s="16"/>
     </row>
@@ -19667,10 +19638,10 @@
         <v>43263</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="17">
         <v>3000</v>
@@ -19679,23 +19650,23 @@
         <v>300</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J33" s="17">
         <v>200</v>
       </c>
       <c r="K33" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="M33" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>703</v>
-      </c>
-      <c r="M33" s="20" t="s">
-        <v>84</v>
       </c>
       <c r="N33" s="16"/>
     </row>
@@ -19707,33 +19678,33 @@
         <v>43280</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="17">
         <v>350</v>
       </c>
       <c r="F34" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N34" s="16"/>
     </row>
@@ -19745,7 +19716,7 @@
         <v>43307</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>60</v>
@@ -19761,11 +19732,11 @@
       <c r="I35" s="21"/>
       <c r="J35" s="17"/>
       <c r="K35" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L35" s="23"/>
       <c r="M35" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N35" s="16"/>
     </row>
@@ -19777,31 +19748,31 @@
         <v>43308</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J36" s="17">
         <v>200</v>
       </c>
       <c r="K36" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="M36" s="20" t="s">
         <v>201</v>
-      </c>
-      <c r="L36" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>202</v>
       </c>
       <c r="N36" s="16"/>
     </row>
@@ -19813,7 +19784,7 @@
         <v>43324</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>60</v>
@@ -19822,29 +19793,29 @@
         <v>25000000</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J37" s="17">
         <v>50</v>
       </c>
       <c r="K37" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L37" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="L37" s="22" t="s">
+      <c r="M37" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="M37" s="20" t="s">
+      <c r="N37" s="16" t="s">
         <v>230</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -19855,7 +19826,7 @@
         <v>43362</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>60</v>
@@ -19864,7 +19835,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I38" s="21" t="s">
         <v>53</v>
@@ -19873,13 +19844,13 @@
         <v>100</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N38" s="16"/>
     </row>
@@ -19891,7 +19862,7 @@
         <v>43393</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>53</v>
@@ -19907,13 +19878,13 @@
       <c r="I39" s="21"/>
       <c r="J39" s="17"/>
       <c r="K39" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="M39" s="20" t="s">
         <v>625</v>
-      </c>
-      <c r="L39" s="22" t="s">
-        <v>626</v>
-      </c>
-      <c r="M39" s="20" t="s">
-        <v>627</v>
       </c>
       <c r="N39" s="16"/>
     </row>
@@ -19925,31 +19896,31 @@
         <v>43403</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="18" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="M40" s="20" t="s">
         <v>660</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K40" s="18" t="s">
-        <v>659</v>
-      </c>
-      <c r="L40" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="M40" s="20" t="s">
-        <v>662</v>
       </c>
       <c r="N40" s="16"/>
     </row>
@@ -19961,29 +19932,29 @@
         <v>43789</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="17"/>
       <c r="F41" s="18" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="18" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N41" s="16"/>
     </row>
@@ -19995,27 +19966,27 @@
         <v>43467</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="18"/>
       <c r="G42" s="17"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J42" s="17"/>
       <c r="K42" s="18" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="N42" s="16"/>
     </row>
@@ -20027,7 +19998,7 @@
         <v>43467</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>60</v>
@@ -20043,17 +20014,17 @@
         <v>53</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="J43" s="17"/>
       <c r="K43" s="18" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="N43" s="16"/>
     </row>
@@ -20065,29 +20036,29 @@
         <v>43348</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I44" s="17">
         <v>160</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L44" s="84"/>
       <c r="M44" s="84"/>
@@ -20099,21 +20070,21 @@
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="18" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="17"/>
       <c r="K45" s="18" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="L45" s="22"/>
       <c r="M45" s="20"/>
@@ -20127,32 +20098,32 @@
         <v>43314</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I46" s="17">
         <v>300</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M46" s="16"/>
       <c r="N46" s="7"/>
@@ -20161,7 +20132,7 @@
       <c r="A47" s="72"/>
       <c r="B47" s="26"/>
       <c r="C47" s="14" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="17"/>
@@ -20171,11 +20142,11 @@
       <c r="I47" s="21"/>
       <c r="J47" s="17"/>
       <c r="K47" s="18" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="L47" s="22"/>
       <c r="M47" s="20" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="N47" s="16"/>
     </row>
@@ -20183,7 +20154,7 @@
       <c r="A48" s="72"/>
       <c r="B48" s="26"/>
       <c r="C48" s="14" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="17"/>
@@ -20191,13 +20162,13 @@
         <v>22000</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="17"/>
       <c r="K48" s="18" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="L48" s="22"/>
       <c r="M48" s="20"/>
@@ -20578,7 +20549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20696,11 +20667,11 @@
       <c r="I4" s="21"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N4" s="16"/>
     </row>
@@ -20716,11 +20687,11 @@
       <c r="I5" s="21"/>
       <c r="J5" s="17"/>
       <c r="K5" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L5" s="22"/>
       <c r="M5" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N5" s="16"/>
     </row>
